--- a/Site RH/Vagas Abertas/Banco de Talentos/RegressãoDeTestes/PlanilhaRegressaoDeTestes.xlsx
+++ b/Site RH/Vagas Abertas/Banco de Talentos/RegressãoDeTestes/PlanilhaRegressaoDeTestes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DesafioTecnico\Site RH\Vagas Abertas\Banco de Talentos\RegressãoDeTestes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05D8730-1341-42ED-B20B-DBF49F933AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C884B3-C8DB-44F8-BF8E-4D7B68CCA113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-3165" windowWidth="21840" windowHeight="13290" xr2:uid="{7E539092-4E24-4B13-B46E-D4EC5C3F0E55}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,10 +598,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="3">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
         <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -619,10 +619,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="5">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6">
         <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Site RH/Vagas Abertas/Banco de Talentos/RegressãoDeTestes/PlanilhaRegressaoDeTestes.xlsx
+++ b/Site RH/Vagas Abertas/Banco de Talentos/RegressãoDeTestes/PlanilhaRegressaoDeTestes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DesafioTecnico\Site RH\Vagas Abertas\Banco de Talentos\RegressãoDeTestes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C884B3-C8DB-44F8-BF8E-4D7B68CCA113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEB54F6-B274-4201-A766-85D41DBD8001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-3165" windowWidth="21840" windowHeight="13290" xr2:uid="{7E539092-4E24-4B13-B46E-D4EC5C3F0E55}"/>
   </bookViews>
@@ -70,13 +70,13 @@
     <t>Site de Homologação</t>
   </si>
   <si>
-    <t>Site RH &gt; Vagas Abertas &gt; Banco de Talentos</t>
-  </si>
-  <si>
-    <t>Cadastrar_Banco_De_Talentos.feature</t>
-  </si>
-  <si>
-    <t>@CadastrarBancoDeTalentos</t>
+    <t>Site RH &gt; Vagas Abertas &gt; Banco de Talentos &gt; Cadastrar</t>
+  </si>
+  <si>
+    <t>@BancoDeTalentos</t>
+  </si>
+  <si>
+    <t>Banco_De_Talentos_BDD.feature</t>
   </si>
 </sst>
 </file>
@@ -530,15 +530,15 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -583,10 +583,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
